--- a/user-microservice.xlsx
+++ b/user-microservice.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6195C74-8FBD-4EF9-9DAC-33C3B3F014E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B592D51-2F52-49CF-AE32-49FF7BCD68F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -744,9 +744,6 @@
   </si>
   <si>
     <t>This user can manipulate all the data that is marked as inappropriate, as well as requests for profile  verifications.</t>
-  </si>
-  <si>
-    <t>The backend is built using  Golang v1.16.3 within the GoLand 2020.3.3 IDE.</t>
   </si>
   <si>
     <t>Full access to the database</t>
@@ -1027,6 +1024,9 @@
   </si>
   <si>
     <t xml:space="preserve">Without the right creditentials you can not log in to see other users close friends/followers/followings. With authorization headers and valid tokens this action is prevented. Without a password you can not access private informations. </t>
+  </si>
+  <si>
+    <t>The backend is built using  Golang v1.15.3 within the GoLand 2020.3.3 IDE.</t>
   </si>
 </sst>
 </file>
@@ -1553,15 +1553,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1577,21 +1592,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1625,32 +1625,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2367,8 +2367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65:C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2380,11 +2380,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="72"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
       <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2405,10 +2405,10 @@
       <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="81"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2513,10 +2513,10 @@
       <c r="A11" s="15">
         <v>2</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="79"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="35"/>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2524,10 +2524,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="46" t="s">
         <v>241</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>242</v>
       </c>
       <c r="D12" s="34"/>
     </row>
@@ -2550,10 +2550,10 @@
         <v>22</v>
       </c>
       <c r="B14" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" s="36" t="s">
         <v>243</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>244</v>
       </c>
       <c r="D14" s="34" t="s">
         <v>106</v>
@@ -2567,7 +2567,7 @@
         <v>67</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>106</v>
@@ -2578,10 +2578,10 @@
         <v>72</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>104</v>
@@ -2615,10 +2615,10 @@
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="B19" s="46" t="s">
         <v>246</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>247</v>
       </c>
       <c r="C19" s="46" t="s">
         <v>90</v>
@@ -2629,10 +2629,10 @@
       <c r="A20" s="15">
         <v>3</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="79"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="35"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2666,10 +2666,10 @@
         <v>26</v>
       </c>
       <c r="B23" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="C23" s="46" t="s">
         <v>248</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>249</v>
       </c>
       <c r="D23" s="34" t="s">
         <v>102</v>
@@ -2694,10 +2694,10 @@
         <v>80</v>
       </c>
       <c r="B25" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="46" t="s">
         <v>250</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>251</v>
       </c>
       <c r="D25" s="34" t="s">
         <v>104</v>
@@ -2705,22 +2705,22 @@
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="51" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B26" s="46" t="s">
         <v>91</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D26" s="34"/>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
       <c r="D27" s="24"/>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2798,7 +2798,7 @@
         <v>87</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C33" s="40" t="s">
         <v>202</v>
@@ -2812,7 +2812,7 @@
         <v>88</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C34" s="40" t="s">
         <v>203</v>
@@ -2966,7 +2966,7 @@
         <v>184</v>
       </c>
       <c r="B45" s="56" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C45" s="40" t="s">
         <v>218</v>
@@ -3145,112 +3145,112 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="B58" s="55" t="s">
         <v>271</v>
       </c>
-      <c r="B58" s="55" t="s">
+      <c r="C58" s="55" t="s">
         <v>272</v>
-      </c>
-      <c r="C58" s="55" t="s">
-        <v>273</v>
       </c>
       <c r="D58" s="52">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="70" t="s">
+      <c r="A59" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="70"/>
-      <c r="C59" s="70"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="77"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="71" t="s">
+      <c r="B60" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="72"/>
+      <c r="C60" s="76"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>1</v>
       </c>
-      <c r="B61" s="76" t="s">
+      <c r="B61" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C61" s="76"/>
+      <c r="C61" s="81"/>
     </row>
     <row r="62" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="77" t="s">
+      <c r="B62" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="C62" s="77"/>
+      <c r="C62" s="82"/>
     </row>
     <row r="63" spans="1:4" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="77" t="s">
+      <c r="B63" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="C63" s="77"/>
+      <c r="C63" s="82"/>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>2</v>
       </c>
-      <c r="B64" s="76" t="s">
+      <c r="B64" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="C64" s="76"/>
+      <c r="C64" s="81"/>
     </row>
     <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="75" t="s">
-        <v>240</v>
-      </c>
-      <c r="C65" s="74"/>
+      <c r="B65" s="78" t="s">
+        <v>309</v>
+      </c>
+      <c r="C65" s="79"/>
     </row>
     <row r="66" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B66" s="73" t="s">
-        <v>282</v>
-      </c>
-      <c r="C66" s="74"/>
+      <c r="B66" s="78" t="s">
+        <v>281</v>
+      </c>
+      <c r="C66" s="79"/>
     </row>
     <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B67" s="75" t="s">
+      <c r="B67" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="C67" s="74"/>
+      <c r="C67" s="79"/>
     </row>
     <row r="68" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B68" s="73" t="s">
-        <v>277</v>
-      </c>
-      <c r="C68" s="74"/>
+      <c r="B68" s="78" t="s">
+        <v>276</v>
+      </c>
+      <c r="C68" s="79"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="70" t="s">
+      <c r="A69" s="77" t="s">
         <v>237</v>
       </c>
-      <c r="B69" s="70"/>
-      <c r="C69" s="70"/>
+      <c r="B69" s="77"/>
+      <c r="C69" s="77"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="29" t="s">
@@ -3309,11 +3309,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A27:C27"/>
     <mergeCell ref="A69:C69"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="B60:C60"/>
@@ -3325,6 +3320,11 @@
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4011,7 +4011,7 @@
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="92" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C45" s="92"/>
       <c r="D45" s="92"/>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="92" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C75" s="92"/>
       <c r="D75" s="92"/>
@@ -4915,7 +4915,7 @@
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="92" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C105" s="92"/>
       <c r="D105" s="92"/>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="92" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C135" s="92"/>
       <c r="D135" s="92"/>
@@ -5819,18 +5819,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B46:N74"/>
+    <mergeCell ref="B21:N21"/>
+    <mergeCell ref="B2:N20"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B22:N44"/>
+    <mergeCell ref="B45:N45"/>
     <mergeCell ref="B136:N164"/>
     <mergeCell ref="B75:N75"/>
     <mergeCell ref="B76:N104"/>
     <mergeCell ref="B105:N105"/>
     <mergeCell ref="B106:N134"/>
     <mergeCell ref="B135:N135"/>
-    <mergeCell ref="B46:N74"/>
-    <mergeCell ref="B21:N21"/>
-    <mergeCell ref="B2:N20"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B22:N44"/>
-    <mergeCell ref="B45:N45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5855,12 +5855,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -5897,10 +5897,10 @@
       <c r="B4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="100"/>
+      <c r="D4" s="98"/>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -5909,10 +5909,10 @@
       <c r="B5" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="96" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="94"/>
+      <c r="D5" s="96"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -5949,10 +5949,10 @@
       <c r="B8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="102"/>
+      <c r="D8" s="100"/>
     </row>
     <row r="9" spans="1:4" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -5961,10 +5961,10 @@
       <c r="B9" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="96" t="s">
-        <v>257</v>
-      </c>
-      <c r="D9" s="97"/>
+      <c r="C9" s="101" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" s="102"/>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
@@ -5985,10 +5985,10 @@
       <c r="B11" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="101" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="97"/>
+      <c r="D11" s="102"/>
     </row>
     <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
@@ -5998,7 +5998,7 @@
         <v>114</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D12" s="42"/>
     </row>
@@ -6049,10 +6049,10 @@
       <c r="B16" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="95" t="s">
+      <c r="C16" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="95"/>
+      <c r="D16" s="97"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
@@ -6061,10 +6061,10 @@
       <c r="B17" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="D17" s="94"/>
+      <c r="C17" s="96" t="s">
+        <v>254</v>
+      </c>
+      <c r="D17" s="96"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
@@ -6101,10 +6101,10 @@
       <c r="B20" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="95" t="s">
+      <c r="C20" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="95"/>
+      <c r="D20" s="97"/>
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
@@ -6113,10 +6113,10 @@
       <c r="B21" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="D21" s="94"/>
+      <c r="C21" s="96" t="s">
+        <v>255</v>
+      </c>
+      <c r="D21" s="96"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
@@ -6153,22 +6153,22 @@
       <c r="B24" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="95" t="s">
+      <c r="C24" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="95"/>
+      <c r="D24" s="97"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>132</v>
       </c>
       <c r="B25" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="96" t="s">
         <v>258</v>
       </c>
-      <c r="C25" s="94" t="s">
-        <v>259</v>
-      </c>
-      <c r="D25" s="94"/>
+      <c r="D25" s="96"/>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
@@ -6217,58 +6217,58 @@
       <c r="B29" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="95" t="s">
+      <c r="C29" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="95"/>
+      <c r="D29" s="97"/>
     </row>
     <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>133</v>
       </c>
       <c r="B30" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="C30" s="96" t="s">
         <v>260</v>
       </c>
-      <c r="C30" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="D30" s="94"/>
+      <c r="D30" s="96"/>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>304</v>
-      </c>
-      <c r="C31" s="98" t="s">
-        <v>307</v>
-      </c>
-      <c r="D31" s="99"/>
+        <v>303</v>
+      </c>
+      <c r="C31" s="94" t="s">
+        <v>306</v>
+      </c>
+      <c r="D31" s="95"/>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>303</v>
-      </c>
-      <c r="C32" s="98" t="s">
-        <v>306</v>
-      </c>
-      <c r="D32" s="99"/>
+        <v>302</v>
+      </c>
+      <c r="C32" s="94" t="s">
+        <v>305</v>
+      </c>
+      <c r="D32" s="95"/>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="B33" s="64" t="s">
         <v>301</v>
       </c>
-      <c r="B33" s="64" t="s">
-        <v>302</v>
-      </c>
-      <c r="C33" s="98" t="s">
-        <v>305</v>
-      </c>
-      <c r="D33" s="99"/>
+      <c r="C33" s="94" t="s">
+        <v>304</v>
+      </c>
+      <c r="D33" s="95"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
@@ -6305,34 +6305,34 @@
       <c r="B36" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="95" t="s">
+      <c r="C36" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="95"/>
+      <c r="D36" s="97"/>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>134</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="C37" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="C37" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="D37" s="94"/>
+      <c r="D37" s="96"/>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="B38" s="62" t="s">
         <v>296</v>
       </c>
-      <c r="B38" s="62" t="s">
-        <v>297</v>
-      </c>
-      <c r="C38" s="98" t="s">
+      <c r="C38" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="D38" s="99"/>
+      <c r="D38" s="95"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
@@ -6369,10 +6369,10 @@
       <c r="B41" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="95" t="s">
+      <c r="C41" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="95"/>
+      <c r="D41" s="97"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
@@ -6381,10 +6381,10 @@
       <c r="B42" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="94" t="s">
+      <c r="C42" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="D42" s="94"/>
+      <c r="D42" s="96"/>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
@@ -6393,22 +6393,22 @@
       <c r="B43" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="C43" s="94" t="s">
+      <c r="C43" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="D43" s="94"/>
+      <c r="D43" s="96"/>
     </row>
     <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="B44" s="60" t="s">
         <v>286</v>
       </c>
-      <c r="B44" s="60" t="s">
+      <c r="C44" s="94" t="s">
         <v>287</v>
       </c>
-      <c r="C44" s="98" t="s">
-        <v>288</v>
-      </c>
-      <c r="D44" s="99"/>
+      <c r="D44" s="95"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
@@ -6445,10 +6445,10 @@
       <c r="B47" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="95" t="s">
+      <c r="C47" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="95"/>
+      <c r="D47" s="97"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
@@ -6457,10 +6457,10 @@
       <c r="B48" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C48" s="94" t="s">
+      <c r="C48" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="D48" s="94"/>
+      <c r="D48" s="96"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
@@ -6497,10 +6497,10 @@
       <c r="B51" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="95" t="s">
+      <c r="C51" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="95"/>
+      <c r="D51" s="97"/>
     </row>
     <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
@@ -6509,10 +6509,10 @@
       <c r="B52" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C52" s="94" t="s">
+      <c r="C52" s="96" t="s">
         <v>230</v>
       </c>
-      <c r="D52" s="94"/>
+      <c r="D52" s="96"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
@@ -6549,10 +6549,10 @@
       <c r="B55" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="95" t="s">
+      <c r="C55" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="D55" s="95"/>
+      <c r="D55" s="97"/>
     </row>
     <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
@@ -6561,10 +6561,10 @@
       <c r="B56" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="94" t="s">
+      <c r="C56" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="D56" s="94"/>
+      <c r="D56" s="96"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="50" t="s">
@@ -6601,37 +6601,54 @@
       <c r="B59" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C59" s="95" t="s">
+      <c r="C59" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="95"/>
+      <c r="D59" s="97"/>
     </row>
     <row r="60" spans="1:4" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B60" s="49" t="s">
-        <v>274</v>
-      </c>
-      <c r="C60" s="94" t="s">
-        <v>294</v>
-      </c>
-      <c r="D60" s="94"/>
+        <v>273</v>
+      </c>
+      <c r="C60" s="96" t="s">
+        <v>293</v>
+      </c>
+      <c r="D60" s="96"/>
     </row>
     <row r="61" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="B61" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="C61" s="96" t="s">
         <v>283</v>
       </c>
-      <c r="B61" s="58" t="s">
-        <v>285</v>
-      </c>
-      <c r="C61" s="94" t="s">
-        <v>284</v>
-      </c>
-      <c r="D61" s="94"/>
+      <c r="D61" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="C36:D36"/>
@@ -6648,23 +6665,6 @@
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C42:D42"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6675,8 +6675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6688,15 +6688,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -6758,13 +6758,13 @@
         <v>43</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>53</v>
       </c>
       <c r="G4" s="61" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6787,7 +6787,7 @@
         <v>147</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6810,7 +6810,7 @@
         <v>149</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6827,13 +6827,13 @@
         <v>43</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>53</v>
       </c>
       <c r="G7" s="53" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6850,13 +6850,13 @@
         <v>43</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>147</v>
       </c>
       <c r="G8" s="63" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6873,13 +6873,13 @@
         <v>52</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>53</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6896,13 +6896,13 @@
         <v>39</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F10" s="30" t="s">
         <v>147</v>
       </c>
       <c r="G10" s="59" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6988,13 +6988,13 @@
         <v>43</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F14" s="54" t="s">
         <v>147</v>
       </c>
       <c r="G14" s="57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -7141,9 +7141,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7279,19 +7282,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BB517A3-CC67-477D-B6B3-FBDAE4AB9BBA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34F3655E-FF67-4DBD-8937-399569529388}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7315,9 +7314,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34F3655E-FF67-4DBD-8937-399569529388}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BB517A3-CC67-477D-B6B3-FBDAE4AB9BBA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/user-microservice.xlsx
+++ b/user-microservice.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B592D51-2F52-49CF-AE32-49FF7BCD68F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651E2081-D01C-485A-9FA0-76B1EC460D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -1553,6 +1553,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1565,33 +1589,9 @@
     <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1625,18 +1625,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1645,12 +1651,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1675,14 +1675,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>43165</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>160732</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>8028</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>375934</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19555</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>172258</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1710,8 +1710,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2110090" y="541732"/>
-          <a:ext cx="3990369" cy="2906823"/>
+          <a:off x="2110090" y="579528"/>
+          <a:ext cx="3990369" cy="2831230"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1724,14 +1724,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>356133</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>79834</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>40803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>77218</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>148455</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>187486</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1759,8 +1759,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1813458" y="4080334"/>
-          <a:ext cx="4597885" cy="4259621"/>
+          <a:off x="1813458" y="4231803"/>
+          <a:ext cx="4597885" cy="3956683"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1772,13 +1772,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>34084</xdr:colOff>
+      <xdr:colOff>128974</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>29623</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>194518</xdr:colOff>
+      <xdr:colOff>99628</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>108328</xdr:rowOff>
     </xdr:to>
@@ -1808,8 +1808,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2101009" y="8602123"/>
-          <a:ext cx="4427634" cy="5412705"/>
+          <a:off x="2195899" y="8602123"/>
+          <a:ext cx="4237854" cy="5412705"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1823,9 +1823,9 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>115775</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>29623</xdr:rowOff>
+      <xdr:rowOff>72892</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4264252" cy="5412705"/>
+    <xdr:ext cx="4264252" cy="5326167"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
@@ -1852,8 +1852,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2182700" y="14317123"/>
-          <a:ext cx="4264252" cy="5412705"/>
+          <a:off x="2182700" y="14360392"/>
+          <a:ext cx="4264252" cy="5326167"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1865,11 +1865,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>34084</xdr:colOff>
+      <xdr:colOff>374091</xdr:colOff>
       <xdr:row>105</xdr:row>
       <xdr:rowOff>136694</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4427634" cy="5198562"/>
+    <xdr:ext cx="3747619" cy="5198562"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="Picture 6">
@@ -1896,8 +1896,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2101009" y="20139194"/>
-          <a:ext cx="4427634" cy="5198562"/>
+          <a:off x="2441016" y="20139194"/>
+          <a:ext cx="3747619" cy="5198562"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1909,11 +1909,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>74732</xdr:colOff>
+      <xdr:colOff>371629</xdr:colOff>
       <xdr:row>135</xdr:row>
       <xdr:rowOff>165269</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4403487" cy="5198562"/>
+    <xdr:ext cx="3809692" cy="5198562"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="8" name="Picture 7">
@@ -1940,8 +1940,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2141657" y="25882769"/>
-          <a:ext cx="4403487" cy="5198562"/>
+          <a:off x="2438554" y="25882769"/>
+          <a:ext cx="3809692" cy="5198562"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2367,7 +2367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="B65" sqref="B65:C65"/>
     </sheetView>
   </sheetViews>
@@ -2380,11 +2380,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="72"/>
       <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2405,10 +2405,10 @@
       <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="73"/>
+      <c r="C3" s="81"/>
       <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2513,10 +2513,10 @@
       <c r="A11" s="15">
         <v>2</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="71"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="35"/>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2629,10 +2629,10 @@
       <c r="A20" s="15">
         <v>3</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="71"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="35"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2716,11 +2716,11 @@
       <c r="D26" s="34"/>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
       <c r="D27" s="24"/>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3158,99 +3158,99 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="77" t="s">
+      <c r="A59" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="77"/>
-      <c r="C59" s="77"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="70"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="74" t="s">
+      <c r="B60" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="76"/>
+      <c r="C60" s="72"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>1</v>
       </c>
-      <c r="B61" s="81" t="s">
+      <c r="B61" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C61" s="81"/>
+      <c r="C61" s="76"/>
     </row>
     <row r="62" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="82" t="s">
+      <c r="B62" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="C62" s="82"/>
+      <c r="C62" s="77"/>
     </row>
     <row r="63" spans="1:4" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="82" t="s">
+      <c r="B63" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C63" s="82"/>
+      <c r="C63" s="77"/>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>2</v>
       </c>
-      <c r="B64" s="81" t="s">
+      <c r="B64" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="C64" s="81"/>
+      <c r="C64" s="76"/>
     </row>
     <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="78" t="s">
+      <c r="B65" s="73" t="s">
         <v>309</v>
       </c>
-      <c r="C65" s="79"/>
+      <c r="C65" s="74"/>
     </row>
     <row r="66" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B66" s="78" t="s">
+      <c r="B66" s="73" t="s">
         <v>281</v>
       </c>
-      <c r="C66" s="79"/>
+      <c r="C66" s="74"/>
     </row>
     <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B67" s="80" t="s">
+      <c r="B67" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="C67" s="79"/>
+      <c r="C67" s="74"/>
     </row>
     <row r="68" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B68" s="78" t="s">
+      <c r="B68" s="73" t="s">
         <v>276</v>
       </c>
-      <c r="C68" s="79"/>
+      <c r="C68" s="74"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="77" t="s">
+      <c r="A69" s="70" t="s">
         <v>237</v>
       </c>
-      <c r="B69" s="77"/>
-      <c r="C69" s="77"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="70"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="29" t="s">
@@ -3309,6 +3309,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A27:C27"/>
     <mergeCell ref="A69:C69"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="B60:C60"/>
@@ -3320,11 +3325,6 @@
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3335,8 +3335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:O164"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="Q151" sqref="Q151"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="Q152" sqref="Q152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5819,18 +5819,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B136:N164"/>
+    <mergeCell ref="B75:N75"/>
+    <mergeCell ref="B76:N104"/>
+    <mergeCell ref="B105:N105"/>
+    <mergeCell ref="B106:N134"/>
+    <mergeCell ref="B135:N135"/>
     <mergeCell ref="B46:N74"/>
     <mergeCell ref="B21:N21"/>
     <mergeCell ref="B2:N20"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B22:N44"/>
     <mergeCell ref="B45:N45"/>
-    <mergeCell ref="B136:N164"/>
-    <mergeCell ref="B75:N75"/>
-    <mergeCell ref="B76:N104"/>
-    <mergeCell ref="B105:N105"/>
-    <mergeCell ref="B106:N134"/>
-    <mergeCell ref="B135:N135"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5855,12 +5855,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -5897,10 +5897,10 @@
       <c r="B4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="98"/>
+      <c r="D4" s="100"/>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -5909,10 +5909,10 @@
       <c r="B5" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="96"/>
+      <c r="D5" s="94"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -5949,10 +5949,10 @@
       <c r="B8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="100"/>
+      <c r="D8" s="102"/>
     </row>
     <row r="9" spans="1:4" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -5961,10 +5961,10 @@
       <c r="B9" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="96" t="s">
         <v>256</v>
       </c>
-      <c r="D9" s="102"/>
+      <c r="D9" s="97"/>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
@@ -5985,10 +5985,10 @@
       <c r="B11" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="102"/>
+      <c r="D11" s="97"/>
     </row>
     <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
@@ -6049,10 +6049,10 @@
       <c r="B16" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="97" t="s">
+      <c r="C16" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="97"/>
+      <c r="D16" s="95"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
@@ -6061,10 +6061,10 @@
       <c r="B17" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="96" t="s">
+      <c r="C17" s="94" t="s">
         <v>254</v>
       </c>
-      <c r="D17" s="96"/>
+      <c r="D17" s="94"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
@@ -6101,10 +6101,10 @@
       <c r="B20" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="97" t="s">
+      <c r="C20" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="97"/>
+      <c r="D20" s="95"/>
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
@@ -6113,10 +6113,10 @@
       <c r="B21" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="96" t="s">
+      <c r="C21" s="94" t="s">
         <v>255</v>
       </c>
-      <c r="D21" s="96"/>
+      <c r="D21" s="94"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
@@ -6153,10 +6153,10 @@
       <c r="B24" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="97" t="s">
+      <c r="C24" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="97"/>
+      <c r="D24" s="95"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
@@ -6165,10 +6165,10 @@
       <c r="B25" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="C25" s="96" t="s">
+      <c r="C25" s="94" t="s">
         <v>258</v>
       </c>
-      <c r="D25" s="96"/>
+      <c r="D25" s="94"/>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
@@ -6217,10 +6217,10 @@
       <c r="B29" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="97" t="s">
+      <c r="C29" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="97"/>
+      <c r="D29" s="95"/>
     </row>
     <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
@@ -6229,10 +6229,10 @@
       <c r="B30" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="C30" s="96" t="s">
+      <c r="C30" s="94" t="s">
         <v>260</v>
       </c>
-      <c r="D30" s="96"/>
+      <c r="D30" s="94"/>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
@@ -6241,10 +6241,10 @@
       <c r="B31" s="64" t="s">
         <v>303</v>
       </c>
-      <c r="C31" s="94" t="s">
+      <c r="C31" s="98" t="s">
         <v>306</v>
       </c>
-      <c r="D31" s="95"/>
+      <c r="D31" s="99"/>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
@@ -6253,10 +6253,10 @@
       <c r="B32" s="64" t="s">
         <v>302</v>
       </c>
-      <c r="C32" s="94" t="s">
+      <c r="C32" s="98" t="s">
         <v>305</v>
       </c>
-      <c r="D32" s="95"/>
+      <c r="D32" s="99"/>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
@@ -6265,10 +6265,10 @@
       <c r="B33" s="64" t="s">
         <v>301</v>
       </c>
-      <c r="C33" s="94" t="s">
+      <c r="C33" s="98" t="s">
         <v>304</v>
       </c>
-      <c r="D33" s="95"/>
+      <c r="D33" s="99"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
@@ -6305,10 +6305,10 @@
       <c r="B36" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="97" t="s">
+      <c r="C36" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="97"/>
+      <c r="D36" s="95"/>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
@@ -6317,10 +6317,10 @@
       <c r="B37" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="C37" s="96" t="s">
+      <c r="C37" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="D37" s="96"/>
+      <c r="D37" s="94"/>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
@@ -6329,10 +6329,10 @@
       <c r="B38" s="62" t="s">
         <v>296</v>
       </c>
-      <c r="C38" s="94" t="s">
+      <c r="C38" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="D38" s="95"/>
+      <c r="D38" s="99"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
@@ -6369,10 +6369,10 @@
       <c r="B41" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="97" t="s">
+      <c r="C41" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="97"/>
+      <c r="D41" s="95"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
@@ -6381,10 +6381,10 @@
       <c r="B42" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="96" t="s">
+      <c r="C42" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="D42" s="96"/>
+      <c r="D42" s="94"/>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
@@ -6393,10 +6393,10 @@
       <c r="B43" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="C43" s="96" t="s">
+      <c r="C43" s="94" t="s">
         <v>156</v>
       </c>
-      <c r="D43" s="96"/>
+      <c r="D43" s="94"/>
     </row>
     <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
@@ -6405,10 +6405,10 @@
       <c r="B44" s="60" t="s">
         <v>286</v>
       </c>
-      <c r="C44" s="94" t="s">
+      <c r="C44" s="98" t="s">
         <v>287</v>
       </c>
-      <c r="D44" s="95"/>
+      <c r="D44" s="99"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
@@ -6445,10 +6445,10 @@
       <c r="B47" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="97" t="s">
+      <c r="C47" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="97"/>
+      <c r="D47" s="95"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
@@ -6457,10 +6457,10 @@
       <c r="B48" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C48" s="96" t="s">
+      <c r="C48" s="94" t="s">
         <v>154</v>
       </c>
-      <c r="D48" s="96"/>
+      <c r="D48" s="94"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
@@ -6497,10 +6497,10 @@
       <c r="B51" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="97" t="s">
+      <c r="C51" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="97"/>
+      <c r="D51" s="95"/>
     </row>
     <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
@@ -6509,10 +6509,10 @@
       <c r="B52" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C52" s="96" t="s">
+      <c r="C52" s="94" t="s">
         <v>230</v>
       </c>
-      <c r="D52" s="96"/>
+      <c r="D52" s="94"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
@@ -6549,10 +6549,10 @@
       <c r="B55" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="97" t="s">
+      <c r="C55" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="D55" s="97"/>
+      <c r="D55" s="95"/>
     </row>
     <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
@@ -6561,10 +6561,10 @@
       <c r="B56" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="96" t="s">
+      <c r="C56" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="D56" s="96"/>
+      <c r="D56" s="94"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="50" t="s">
@@ -6601,10 +6601,10 @@
       <c r="B59" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C59" s="97" t="s">
+      <c r="C59" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="97"/>
+      <c r="D59" s="95"/>
     </row>
     <row r="60" spans="1:4" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
@@ -6613,10 +6613,10 @@
       <c r="B60" s="49" t="s">
         <v>273</v>
       </c>
-      <c r="C60" s="96" t="s">
+      <c r="C60" s="94" t="s">
         <v>293</v>
       </c>
-      <c r="D60" s="96"/>
+      <c r="D60" s="94"/>
     </row>
     <row r="61" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
@@ -6625,30 +6625,13 @@
       <c r="B61" s="58" t="s">
         <v>284</v>
       </c>
-      <c r="C61" s="96" t="s">
+      <c r="C61" s="94" t="s">
         <v>283</v>
       </c>
-      <c r="D61" s="96"/>
+      <c r="D61" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="C36:D36"/>
@@ -6665,6 +6648,23 @@
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C42:D42"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6688,15 +6688,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -7141,12 +7141,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7282,15 +7279,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34F3655E-FF67-4DBD-8937-399569529388}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BB517A3-CC67-477D-B6B3-FBDAE4AB9BBA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7314,10 +7315,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BB517A3-CC67-477D-B6B3-FBDAE4AB9BBA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34F3655E-FF67-4DBD-8937-399569529388}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>